--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
@@ -58,73 +58,82 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>probably</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>short</t>
   </si>
   <si>
     <t>difficult</t>
@@ -133,46 +142,55 @@
     <t>fell</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>fl</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>product</t>
@@ -181,48 +199,45 @@
     <t>better</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
+    <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -232,12 +247,12 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -253,12 +268,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -268,55 +283,58 @@
     <t>loved</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>playing</t>
   </si>
   <si>
     <t>play</t>
@@ -680,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -767,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -799,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8620689655172413</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -841,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -849,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8409090909090909</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -867,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K5">
-        <v>0.8769230769230769</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -891,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -899,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7323943661971831</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -917,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>0.8279569892473119</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -941,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K7">
         <v>0.8</v>
@@ -999,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7096774193548387</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1017,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K8">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1041,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1049,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1067,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K9">
         <v>0.7083333333333334</v>
@@ -1120,7 +1138,7 @@
         <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K10">
         <v>0.6981132075471698</v>
@@ -1149,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.631578947368421</v>
+        <v>0.640625</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1167,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0.563845050215208</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L11">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1191,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>304</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1199,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6296296296296297</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1217,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>0.5507246376811594</v>
+        <v>0.5652797704447633</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.616504854368932</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C13">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1267,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K13">
-        <v>0.5124481327800829</v>
+        <v>0.479253112033195</v>
       </c>
       <c r="L13">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M13">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1291,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1299,37 +1317,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>21</v>
       </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>14</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K14">
-        <v>0.4467213114754098</v>
+        <v>0.4491803278688525</v>
       </c>
       <c r="L14">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M14">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1341,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1349,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1367,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K15">
-        <v>0.3730886850152905</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1391,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1399,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5882352941176471</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1417,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K16">
-        <v>0.3650793650793651</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1441,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1449,13 +1467,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1467,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K17">
-        <v>0.3554216867469879</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L17">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M17">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1491,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1499,13 +1517,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1517,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K18">
-        <v>0.3333333333333333</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1541,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1549,13 +1567,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5159420289855072</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C19">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1567,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K19">
-        <v>0.3207547169811321</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1591,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1599,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1617,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K20">
-        <v>0.2109375</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1641,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1649,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4473684210526316</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1667,31 +1685,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K21">
-        <v>0.1973684210526316</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>61</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1699,13 +1717,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4444444444444444</v>
+        <v>0.421875</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1717,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K22">
-        <v>0.1904761904761905</v>
+        <v>0.2</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1741,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1749,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4259259259259259</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1767,19 +1785,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K23">
-        <v>0.184</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1791,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1799,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4251968503937008</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C24">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1817,19 +1835,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K24">
-        <v>0.1818181818181818</v>
+        <v>0.1875</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1841,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1849,13 +1867,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4216867469879518</v>
+        <v>0.390625</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1867,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K25">
-        <v>0.1774193548387097</v>
+        <v>0.1847389558232932</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1891,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1899,13 +1917,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1917,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K26">
-        <v>0.1606425702811245</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1941,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>209</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1949,13 +1967,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3888888888888889</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1967,31 +1985,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K27">
-        <v>0.1481156879929886</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="L27">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M27">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1999,13 +2017,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3791469194312796</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2017,19 +2035,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K28">
-        <v>0.1282051282051282</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2041,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2049,13 +2067,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.359375</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2067,19 +2085,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K29">
-        <v>0.0855614973262032</v>
+        <v>0.08356545961002786</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2091,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2099,13 +2117,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.359375</v>
+        <v>0.3696682464454976</v>
       </c>
       <c r="C30">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D30">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2117,31 +2135,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K30">
-        <v>0.07862248213125406</v>
+        <v>0.07219251336898395</v>
       </c>
       <c r="L30">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1418</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2149,13 +2167,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3263157894736842</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2167,19 +2185,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K31">
-        <v>0.07520891364902507</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2191,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>332</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2199,13 +2217,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3258426966292135</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2217,31 +2235,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K32">
-        <v>0.04953560371517028</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>307</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2249,13 +2267,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2909090909090909</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2267,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K33">
-        <v>0.03861517976031957</v>
+        <v>0.06827048114434331</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N33">
         <v>0.97</v>
@@ -2291,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>722</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2299,13 +2317,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2698412698412698</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2317,7 +2335,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34">
+        <v>0.04005340453938585</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>0.91</v>
+      </c>
+      <c r="O34">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>719</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2325,13 +2367,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2686567164179104</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2343,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2351,13 +2393,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2673267326732673</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2369,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>148</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2377,13 +2419,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2586206896551724</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2395,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2403,13 +2445,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2448979591836735</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2421,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2429,13 +2471,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2371134020618557</v>
+        <v>0.2722772277227723</v>
       </c>
       <c r="C39">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D39">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2447,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2455,13 +2497,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2318840579710145</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2473,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>53</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2481,13 +2523,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2222222222222222</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2499,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2507,13 +2549,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2525,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>160</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2533,13 +2575,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1811594202898551</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2551,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>226</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2559,13 +2601,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1740506329113924</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C44">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2577,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>261</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2585,25 +2627,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1671469740634006</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C45">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E45">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>289</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2611,13 +2653,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1617210682492582</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C46">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="D46">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2629,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>565</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2637,13 +2679,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1424050632911392</v>
+        <v>0.165</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D47">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2655,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>271</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2663,25 +2705,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.130242825607064</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C48">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>394</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2689,13 +2731,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1261682242990654</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2707,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>187</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2715,13 +2757,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1214285714285714</v>
+        <v>0.1572700296735905</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2733,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>123</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2741,13 +2783,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1210191082802548</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2759,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>138</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2767,13 +2809,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.12</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2785,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2793,25 +2835,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1181102362204724</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2819,13 +2861,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1099476439790576</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D54">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2837,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>170</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2845,25 +2887,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1052631578947368</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C55">
         <v>26</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2871,13 +2913,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1048689138576779</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C56">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D56">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2889,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2897,25 +2939,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.09625668449197861</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E57">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2923,25 +2965,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0779510022271715</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>414</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2949,25 +2991,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06868131868131869</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F59">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>339</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2975,25 +3017,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.06765676567656766</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="C60">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>565</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3001,13 +3043,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.06478873239436619</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3019,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>332</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3027,25 +3069,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.04662004662004662</v>
+        <v>0.07417582417582418</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E62">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="F62">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>409</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3053,25 +3095,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.03929024081115336</v>
+        <v>0.07126948775055679</v>
       </c>
       <c r="C63">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E63">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>758</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3079,25 +3121,155 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03369065849923431</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D64">
         <v>24</v>
       </c>
       <c r="E64">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>631</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.05445544554455446</v>
+      </c>
+      <c r="C65">
+        <v>33</v>
+      </c>
+      <c r="D65">
+        <v>35</v>
+      </c>
+      <c r="E65">
+        <v>0.06</v>
+      </c>
+      <c r="F65">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.04689480354879594</v>
+      </c>
+      <c r="C67">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>42</v>
+      </c>
+      <c r="E67">
+        <v>0.12</v>
+      </c>
+      <c r="F67">
+        <v>0.88</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.03720930232558139</v>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>0.2</v>
+      </c>
+      <c r="F68">
+        <v>0.8</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.03363914373088685</v>
+      </c>
+      <c r="C69">
+        <v>22</v>
+      </c>
+      <c r="D69">
+        <v>23</v>
+      </c>
+      <c r="E69">
+        <v>0.04</v>
+      </c>
+      <c r="F69">
+        <v>0.96</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
